--- a/Condición_Pacientes_HN.xlsx
+++ b/Condición_Pacientes_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{E92B1E98-6300-43E8-A193-141B8DC44145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{386EB29C-1214-4BB0-ADDB-215BB38D8295}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{E92B1E98-6300-43E8-A193-141B8DC44145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37C490E7-4CEF-41D5-88F4-A17BA844766B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2AF9DF2C-A2C8-45B1-80FF-162E42031A82}"/>
   </bookViews>
@@ -149,8 +149,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E193F5BD-2E98-4B10-8297-254046EF9753}" name="Condicion_Pacientes" displayName="Condicion_Pacientes" ref="A1:F369" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:F369" xr:uid="{65EBD142-070D-4A8A-9712-8E08F9BC999A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E193F5BD-2E98-4B10-8297-254046EF9753}" name="Condicion_Pacientes" displayName="Condicion_Pacientes" ref="A1:F371" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:F371" xr:uid="{65EBD142-070D-4A8A-9712-8E08F9BC999A}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CE31528F-4062-488B-BE99-F59952B2340B}" name="Fecha" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{468571EA-302F-4F87-B3ED-2172312704D5}" name="Pruebas Realizadas " dataDxfId="4"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B32E72-8F4B-408A-9B01-FAD2807C0C88}">
-  <dimension ref="A1:F369"/>
+  <dimension ref="A1:F371"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="F371" sqref="F371"/>
+      <selection activeCell="D365" sqref="D365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7856,6 +7856,46 @@
         <v>58</v>
       </c>
     </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="6">
+        <v>44274</v>
+      </c>
+      <c r="B370" s="3">
+        <v>2279</v>
+      </c>
+      <c r="C370" s="3">
+        <v>561</v>
+      </c>
+      <c r="D370" s="3">
+        <v>534</v>
+      </c>
+      <c r="E370" s="3">
+        <v>404</v>
+      </c>
+      <c r="F370" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="6">
+        <v>44275</v>
+      </c>
+      <c r="B371" s="3">
+        <v>1859</v>
+      </c>
+      <c r="C371" s="3">
+        <v>574</v>
+      </c>
+      <c r="D371" s="3">
+        <v>528</v>
+      </c>
+      <c r="E371" s="3">
+        <v>397</v>
+      </c>
+      <c r="F371" s="3">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Condición_Pacientes_HN.xlsx
+++ b/Condición_Pacientes_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{E92B1E98-6300-43E8-A193-141B8DC44145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37C490E7-4CEF-41D5-88F4-A17BA844766B}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{E92B1E98-6300-43E8-A193-141B8DC44145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5C4B5664-2FAE-4E59-8BD7-2DDE26712FCC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2AF9DF2C-A2C8-45B1-80FF-162E42031A82}"/>
   </bookViews>
@@ -149,8 +149,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E193F5BD-2E98-4B10-8297-254046EF9753}" name="Condicion_Pacientes" displayName="Condicion_Pacientes" ref="A1:F371" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:F371" xr:uid="{65EBD142-070D-4A8A-9712-8E08F9BC999A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E193F5BD-2E98-4B10-8297-254046EF9753}" name="Condicion_Pacientes" displayName="Condicion_Pacientes" ref="A1:F372" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:F372" xr:uid="{65EBD142-070D-4A8A-9712-8E08F9BC999A}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CE31528F-4062-488B-BE99-F59952B2340B}" name="Fecha" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{468571EA-302F-4F87-B3ED-2172312704D5}" name="Pruebas Realizadas " dataDxfId="4"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B32E72-8F4B-408A-9B01-FAD2807C0C88}">
-  <dimension ref="A1:F371"/>
+  <dimension ref="A1:F372"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="D365" sqref="D365"/>
+      <selection activeCell="F375" sqref="F375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7896,6 +7896,26 @@
         <v>58</v>
       </c>
     </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="6">
+        <v>44276</v>
+      </c>
+      <c r="B372" s="3">
+        <v>1727</v>
+      </c>
+      <c r="C372" s="3">
+        <v>478</v>
+      </c>
+      <c r="D372" s="3">
+        <v>531</v>
+      </c>
+      <c r="E372" s="3">
+        <v>396</v>
+      </c>
+      <c r="F372" s="3">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
